--- a/docs/odh/shr-core-EncounterDiagnosis-extension.xlsx
+++ b/docs/odh/shr-core-EncounterDiagnosis-extension.xlsx
@@ -786,7 +786,7 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>38</v>

--- a/docs/odh/shr-core-EncounterDiagnosis-extension.xlsx
+++ b/docs/odh/shr-core-EncounterDiagnosis-extension.xlsx
@@ -190,7 +190,7 @@
     <t>diagnosiscode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-DiagnosisCode-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-DiagnosisCode-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -200,7 +200,7 @@
     <t>condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Condition-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Condition-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -212,7 +212,7 @@
     <t>priorityrank</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PriorityRank-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PriorityRank-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -222,7 +222,7 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Type-extension]]} {[]}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Type-extension]]} {[]}
 </t>
   </si>
   <si>
@@ -248,7 +248,7 @@
     <t>Source of the definition for the extension code - a logical name or a URL.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Type-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Type-extension"/&gt;</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -276,7 +276,7 @@
     <t>Extension.value[x]</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EncounterDiagnosis-extension"/&gt;</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EncounterDiagnosis-extension"/&gt;</t>
   </si>
   <si>
     <t>base64Binary {[]} {[]}
@@ -429,7 +429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
